--- a/web/public/templates/players_template.xlsx
+++ b/web/public/templates/players_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazel Ann\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reycel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16AF061-1BAF-4088-BE70-12C54270336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C35829-FBAC-4FB2-8B62-3D84DDDD288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B4B46C9-435C-42C4-8978-0B1A42942194}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>BELT</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>GROUP</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
   </si>
 </sst>
 </file>
@@ -480,23 +483,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1938B51-51A3-457D-89E1-BD268B65A321}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.44140625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="17.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="3" customWidth="1"/>
+    <col min="1" max="3" width="26.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="17.77734375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="26.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8">
+    <row r="1" spans="1:11" ht="16.8">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,80 +507,95 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6">
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/public/templates/players_template.xlsx
+++ b/web/public/templates/players_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reycel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C35829-FBAC-4FB2-8B62-3D84DDDD288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F582A-2DA6-4D19-879F-836CAB71C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B4B46C9-435C-42C4-8978-0B1A42942194}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BELT</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -531,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6">
